--- a/PDRB/DR/DR-CRONOGRAMA.xlsx
+++ b/PDRB/DR/DR-CRONOGRAMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aula\PROJETO\Prática Profissional\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\PDRBRA\PDRB\DR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EBDE3063-7866-45FF-A86B-5AD4E3277E15}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="cronograma(v1-r1)" sheetId="1" r:id="rId1"/>
@@ -130,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,6 +279,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -295,21 +309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Ênfase5" xfId="2" builtinId="47"/>
@@ -317,8 +316,36 @@
     <cellStyle name="Ênfase5" xfId="1" builtinId="45"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -626,7 +653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GE26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -642,93 +669,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
     </row>
     <row r="2" spans="1:187" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="5"/>
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:187" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24" t="s">
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
       <c r="T3" s="14" t="s">
         <v>26</v>
       </c>
@@ -901,11 +928,11 @@
       <c r="GE3" s="12"/>
     </row>
     <row r="4" spans="1:187" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="10" t="s">
         <v>5</v>
       </c>
@@ -1120,19 +1147,19 @@
       <c r="GE4" s="12"/>
     </row>
     <row r="5" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="22">
         <v>43150</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="22">
         <v>43150</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="23">
         <v>1</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="23" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="4"/>
@@ -1319,11 +1346,11 @@
       <c r="GE5" s="13"/>
     </row>
     <row r="6" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="5"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1508,19 +1535,19 @@
       <c r="GE6" s="13"/>
     </row>
     <row r="7" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="22">
         <v>43157</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="22">
         <v>43164</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="23">
         <v>1</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="3"/>
@@ -1707,11 +1734,11 @@
       <c r="GE7" s="13"/>
     </row>
     <row r="8" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="3"/>
       <c r="G8" s="5"/>
       <c r="H8" s="3"/>
@@ -1896,19 +1923,19 @@
       <c r="GE8" s="13"/>
     </row>
     <row r="9" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="22">
         <v>43168</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="22">
         <v>43171</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="23">
         <v>1</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="3"/>
@@ -2095,11 +2122,11 @@
       <c r="GE9" s="13"/>
     </row>
     <row r="10" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2284,19 +2311,19 @@
       <c r="GE10" s="13"/>
     </row>
     <row r="11" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="22">
         <v>43164</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="22">
         <v>43171</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="23">
         <v>1</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="3"/>
@@ -2483,11 +2510,11 @@
       <c r="GE11" s="13"/>
     </row>
     <row r="12" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="3"/>
       <c r="G12" s="15"/>
       <c r="H12" s="3"/>
@@ -2672,19 +2699,19 @@
       <c r="GE12" s="13"/>
     </row>
     <row r="13" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="22">
         <v>43168</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="22">
         <v>43171</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="23">
         <v>1</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="3"/>
@@ -2871,11 +2898,11 @@
       <c r="GE13" s="13"/>
     </row>
     <row r="14" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2893,19 +2920,19 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="22">
         <v>43171</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="22">
         <v>43192</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="23">
         <v>0.2</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="3"/>
@@ -2925,11 +2952,11 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:187" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2947,19 +2974,19 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="22">
         <v>43177</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="22">
         <v>43226</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="23">
         <v>0.1</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="22" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3"/>
@@ -2979,11 +3006,11 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -3001,19 +3028,19 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="22">
         <v>43168</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="22">
         <v>43206</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="23">
         <v>0.2</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="22" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="3"/>
@@ -3033,11 +3060,11 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="5"/>
@@ -3055,19 +3082,19 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="22">
         <v>43171</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="22">
         <v>43247</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="23">
         <v>0</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="3"/>
@@ -3087,11 +3114,11 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -3109,19 +3136,19 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="22">
         <v>43182</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="22">
         <v>43245</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="23">
         <v>0</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="3"/>
@@ -3141,11 +3168,11 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -3163,19 +3190,19 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="22">
         <v>43248</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="22">
         <v>43255</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="23">
         <v>0</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="3"/>
@@ -3195,11 +3222,11 @@
       <c r="T25" s="4"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -3218,46 +3245,17 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="J1:T2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
@@ -3274,17 +3272,46 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="J1:T2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
